--- a/medicine/Psychotrope/Columbus_Café_&_Co/Columbus_Café_&_Co.xlsx
+++ b/medicine/Psychotrope/Columbus_Café_&_Co/Columbus_Café_&_Co.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Columbus_Caf%C3%A9_%26_Co</t>
+          <t>Columbus_Café_&amp;_Co</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Columbus Café &amp; Co est une chaîne française de cafés, fondée en 1994.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Columbus_Caf%C3%A9_%26_Co</t>
+          <t>Columbus_Café_&amp;_Co</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'enseigne fondée par Philippe Bloch et Ralph Hababou s'inspire des modèles américains[1]. Elle est créée puis s'est développée en France jusqu'en 2004, date d'implantation de Starbucks en France. L'année suivante, les deux fondateurs sont démis de leurs fonctions[3]. 
-Nicolas Riché est PDG depuis 2007[1]. L'entreprise appartient au deux tiers au fonds d'investissement Mokaline[4], mais, vieillissante et dépassée par la concurrence de Starbucks ou McCafé, n'est plus rentable[1]. La grande majorité des points de vente sont fermés[1]. Il faut attendre 2010 pour que la marque redevienne profitable[1]. 
-Elle reprend son expansion depuis 2011 par une vingtaine d'ouvertures annuelles. Le chiffre d'affaires en 2012 de la franchise était de 18,4 millions d'euros[3]. 
-En septembre 2014 Philippe Bloch et Ralph Hababou abandonnent la présidence à la demande des actionnaires, pour manque de résultats[4].
-Début 2016, les premières capsules Columbus Café sont disponibles dans les grandes surfaces et en point de vente Columbus Café[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'enseigne fondée par Philippe Bloch et Ralph Hababou s'inspire des modèles américains. Elle est créée puis s'est développée en France jusqu'en 2004, date d'implantation de Starbucks en France. L'année suivante, les deux fondateurs sont démis de leurs fonctions. 
+Nicolas Riché est PDG depuis 2007. L'entreprise appartient au deux tiers au fonds d'investissement Mokaline, mais, vieillissante et dépassée par la concurrence de Starbucks ou McCafé, n'est plus rentable. La grande majorité des points de vente sont fermés. Il faut attendre 2010 pour que la marque redevienne profitable. 
+Elle reprend son expansion depuis 2011 par une vingtaine d'ouvertures annuelles. Le chiffre d'affaires en 2012 de la franchise était de 18,4 millions d'euros. 
+En septembre 2014 Philippe Bloch et Ralph Hababou abandonnent la présidence à la demande des actionnaires, pour manque de résultats.
+Début 2016, les premières capsules Columbus Café sont disponibles dans les grandes surfaces et en point de vente Columbus Café,.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Columbus_Caf%C3%A9_%26_Co</t>
+          <t>Columbus_Café_&amp;_Co</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,11 +561,13 @@
           <t>Lieux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cafés Columbus sont essentiellement installés dans les centres-villes, centres commerciaux, ou encore les gares, les aéroports, les aires d'autoroutes. L'enseigne compte[Quand ?] plus de 196 points de vente en France, principalement exploités par des franchisés[réf. nécessaire]. 
-En 2014, le groupe annonce avoir 95 restaurants, tous formats confondus. Son développement a été marqué par des partenariats avec Leroy Merlin, Gémo, Castorama ou encore Fnac[réf. nécessaire]. Huit ans plus tard, il existe 260 lieux après des dizaines d'ouvertures ces dernières années[1].  
-Hors métropole, l'enseigne Columbus Café &amp; Co est présente à l'étranger : au Canada ou à Dubaï par exemple[1].
+En 2014, le groupe annonce avoir 95 restaurants, tous formats confondus. Son développement a été marqué par des partenariats avec Leroy Merlin, Gémo, Castorama ou encore Fnac[réf. nécessaire]. Huit ans plus tard, il existe 260 lieux après des dizaines d'ouvertures ces dernières années.  
+Hors métropole, l'enseigne Columbus Café &amp; Co est présente à l'étranger : au Canada ou à Dubaï par exemple.
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Columbus_Caf%C3%A9_%26_Co</t>
+          <t>Columbus_Café_&amp;_Co</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,9 +596,11 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'enseigne commercialise des boissons chaudes et froides à base de café, chocolat, thé ou fruit. Le produit phare de Columbus Café &amp; Co est le muffin cuisiné dans chaque Columbus à partir d'une préparation pour gâteau faite de manière industrielle, avec une vingtaine de parfums. Depuis 2011, l'entreprise commercialise également des produits salés [1]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'enseigne commercialise des boissons chaudes et froides à base de café, chocolat, thé ou fruit. Le produit phare de Columbus Café &amp; Co est le muffin cuisiné dans chaque Columbus à partir d'une préparation pour gâteau faite de manière industrielle, avec une vingtaine de parfums. Depuis 2011, l'entreprise commercialise également des produits salés . 
 </t>
         </is>
       </c>
